--- a/public/upload/Copie de irt1(1).xlsx
+++ b/public/upload/Copie de irt1(1).xlsx
@@ -8,28 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HELLO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CBE1FD-F3A8-47FF-9803-1F4A9E614D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F44352-ECB6-4E83-8884-ECBC84FD8AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B63CDC00-F639-4CBE-B8DF-445C13789CDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -673,7 +662,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
